--- a/assets/鋼筋型文對照表-20230426.xlsx
+++ b/assets/鋼筋型文對照表-20230426.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,11 +37,15 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="Consolas"/>
+      <sz val="8"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +56,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="004A90E2"/>
         <bgColor rgb="004A90E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8F9FA"/>
+        <bgColor rgb="00F8F9FA"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -81,9 +91,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -166,10 +187,10 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="304800"/>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -191,10 +212,10 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="304800"/>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -216,10 +237,10 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1143000" cy="304800"/>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -227,6 +248,1656 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>79</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>80</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -529,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,14 +2208,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -596,7 +2267,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
@@ -605,72 +2276,2604 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #3
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD280
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D9.5 mm
+  彎曲半徑: R28 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 19 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 3 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="n">
-        <v>3384.084403661248</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1898.47135045396</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="inlineStr"/>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>#3@15,150x10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+          <t>（例: #3-150x10*10 ← 總數100隻）</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="70" customHeight="1">
+      <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>#4</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n">
-        <v>4054.337960716907</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>4038.12060887404</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>#4@20,20+200x10</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #4
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD280
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D12.7 mm
+  彎曲半徑: R50 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 22 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 4 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>（例: 異型箍    總長495，則以單T頭料 "T#4-495x1" 去計，以長度數量正確為原則，最後輸出料單後改圖示即可）</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>#5</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #3
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD280
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D9.5 mm
+  彎曲半徑: R28 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 19 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 3 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
       <c r="D5" s="3" t="n">
-        <v>4054.337960716905</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>6292.332515032637</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3" t="inlineStr"/>
       <c r="H5" s="3" t="inlineStr">
         <is>
+          <t>（例: #3-150x10隻）</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="70" customHeight="1">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1701</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>#3-150x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="70" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1898</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>#3@15,150x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="70" customHeight="1">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1898</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>#3-150@15x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="70" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>4436</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>4418</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>柱箍#4(80x100)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="70" customHeight="1">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4084</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4068</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>柱箍#4@15(80x100)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="70" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>3688</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>#4-20+200x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="70" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4054</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4038</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>#4@20,20+200x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="70" customHeight="1">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>3371</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#4-200x10  </t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="70" customHeight="1">
+      <c r="A14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5747</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>#5-(25+200+25)@20x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="70" customHeight="1">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>4054</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>6292</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
           <t>#5@20,25+200+25x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="70" customHeight="1">
+      <c r="A16" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4054</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6292</v>
+      </c>
+      <c r="G16" s="5" t="inlineStr"/>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>#5-25+200+25x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="70" customHeight="1">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>2714</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>4212</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>寬止#5-25+200+25x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="70" customHeight="1">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>5252</v>
+      </c>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>#5-25+200+50x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="70" customHeight="1">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>5252</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>文武#5-25+200+25x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="70" customHeight="1">
+      <c r="A20" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>7563</v>
+      </c>
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>折135度#6-100+100x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="70" customHeight="1">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3733</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>3718</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>梁箍#4(30x50)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="70" customHeight="1">
+      <c r="A22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3733</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3718</v>
+      </c>
+      <c r="G22" s="5" t="inlineStr"/>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>梁箍#4@15(30x50)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="70" customHeight="1">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>4084</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>4068</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>地箍#4(50x200)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="70" customHeight="1">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3733</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3718</v>
+      </c>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>地箍#4@15(50x200)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="70" customHeight="1">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>6095</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>3419</v>
+      </c>
+      <c r="G25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>牆箍#3(90x90)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="70" customHeight="1">
+      <c r="A26" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>5743</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>3222</v>
+      </c>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>牆箍#3@15(90x90)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="70" customHeight="1">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>5395</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>3026</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>高低箍#3(60+40+80)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="70" customHeight="1">
+      <c r="A28" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5043</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>2829</v>
+      </c>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>高低箍#3@15(60+40+80)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="70" customHeight="1">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>5043</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>5023</v>
+      </c>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>圓箍#4-直徑90x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="70" customHeight="1">
+      <c r="A30" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>5043</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>5023</v>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>圓箍#4@15-直徑90x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="70" customHeight="1">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>5043</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>5023</v>
+      </c>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>梁繫#4-40x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="70" customHeight="1">
+      <c r="A32" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>3020</v>
+      </c>
+      <c r="G32" s="5" t="inlineStr"/>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>柱繫#4-41x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="70" customHeight="1">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1701</v>
+      </c>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>帽蓋#3-50x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="70" customHeight="1">
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>2714</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>17379</v>
+      </c>
+      <c r="G34" s="5" t="inlineStr"/>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>公#10-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="70" customHeight="1">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>21672</v>
+      </c>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>母#10-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="70" customHeight="1">
+      <c r="A36" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>12048</v>
+      </c>
+      <c r="G36" s="5" t="inlineStr"/>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>公母#8#7#6-650x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="70" customHeight="1">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>13445</v>
+      </c>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>公#8#7#6母-650x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="70" customHeight="1">
+      <c r="A38" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>19423</v>
+      </c>
+      <c r="G38" s="5" t="inlineStr"/>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>公#10公-700x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="70" customHeight="1">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>3385</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>21674</v>
+      </c>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>公公#10-700x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="70" customHeight="1">
+      <c r="A40" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C40" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>19426</v>
+      </c>
+      <c r="G40" s="5" t="inlineStr"/>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>母#10母-700x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="70" customHeight="1">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>17385</v>
+      </c>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>母母#10-700x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="70" customHeight="1">
+      <c r="A42" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>3385</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>21680</v>
+      </c>
+      <c r="G42" s="5" t="inlineStr"/>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>公#10-55+750x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="70" customHeight="1">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>3386</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>21682</v>
+      </c>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>母#10-55+750x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="70" customHeight="1">
+      <c r="A44" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>3386</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>21682</v>
+      </c>
+      <c r="G44" s="5" t="inlineStr"/>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>T#10-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="70" customHeight="1">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>4278</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>27394</v>
+      </c>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>T#10T-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="70" customHeight="1">
+      <c r="A46" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>4278</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>27394</v>
+      </c>
+      <c r="G46" s="5" t="inlineStr"/>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>公#10T-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="70" customHeight="1">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>2662</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>2651</v>
+      </c>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>S馬#4@100,7cmx10</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="70" customHeight="1">
+      <c r="A48" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G48" s="5" t="inlineStr"/>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>版椅馬#4@100,19cmx10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="70" customHeight="1">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>1792</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>單馬#4@100-(40X125)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="70" customHeight="1">
+      <c r="A50" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>1792</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>7119</v>
+      </c>
+      <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>地馬#8@100-(40X125)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="70" customHeight="1">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>1792</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G51" s="3" t="inlineStr"/>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>拖鞋馬#4@100,19x6支</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="70" customHeight="1">
+      <c r="A52" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>2362</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>2353</v>
+      </c>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>牆繫#4-41x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="70" customHeight="1">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>3414</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>樑柱箍#4(80x100)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="70" customHeight="1">
+      <c r="A54" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>4084</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>4068</v>
+      </c>
+      <c r="G54" s="5" t="inlineStr"/>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>樑柱箍#4@15(80x100)=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="70" customHeight="1">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>3033</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>3020</v>
+      </c>
+      <c r="G55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>樑柱繫#4-41x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="70" customHeight="1">
+      <c r="A56" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G56" s="5" t="inlineStr"/>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>雙馬#4@100,21+19cm+30x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="70" customHeight="1">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #8
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D25.4 mm
+  彎曲半徑: R203 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 35 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 8 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="inlineStr"/>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>公#8#10母-600x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="70" customHeight="1">
+      <c r="A58" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #10
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D32.3 mm
+  彎曲半徑: R323 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 42 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 10 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="inlineStr"/>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>公#10母-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="70" customHeight="1">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #10
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D32.3 mm
+  彎曲半徑: R323 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 42 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 10 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>公母#10-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="70" customHeight="1">
+      <c r="A60" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>3255</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>20848</v>
+      </c>
+      <c r="G60" s="5" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>母#10T-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="70" customHeight="1">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>5252</v>
+      </c>
+      <c r="G61" s="3" t="inlineStr"/>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>安#5-450x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="70" customHeight="1">
+      <c r="A62" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>3384</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>5252</v>
+      </c>
+      <c r="G62" s="5" t="inlineStr"/>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>安#5-450@15x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="70" customHeight="1">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>2714</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>4212</v>
+      </c>
+      <c r="G63" s="3" t="inlineStr"/>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>安#5-(20+450)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="70" customHeight="1">
+      <c r="A64" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C64" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>2362</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>3666</v>
+      </c>
+      <c r="G64" s="5" t="inlineStr"/>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>安#5-(20+450)@15x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="70" customHeight="1">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>2626</v>
+      </c>
+      <c r="G65" s="3" t="inlineStr"/>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>安#5-20+450x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="70" customHeight="1">
+      <c r="A66" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C66" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>2626</v>
+      </c>
+      <c r="G66" s="5" t="inlineStr"/>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>安#5-20+450@15x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="70" customHeight="1">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #8
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D25.4 mm
+  彎曲半徑: R203 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 35 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 8 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="inlineStr"/>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>公#8#7#6-650x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="70" customHeight="1">
+      <c r="A68" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #8
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D25.4 mm
+  彎曲半徑: R203 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 35 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 8 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="inlineStr"/>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>#8#7#6公-650x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="70" customHeight="1">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #8
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D25.4 mm
+  彎曲半徑: R203 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 35 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 8 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="inlineStr"/>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>母#8#7#6-650x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="70" customHeight="1">
+      <c r="A70" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗
+║                    專業鋼筋規格圖                        ║
+╚══════════════════════════════════════════════════════════╝
+🔧 基本資訊:
+  鋼筋編號: #8
+  鋼筋類型: 0段複合鋼筋
+  材料等級: SD420
+📏 尺寸規格:
+  總長度:    0 cm
+  計算式:  = 0 cm
+⚙️ 技術參數:
+  鋼筋直徑: D25.4 mm
+  彎曲半徑: R203 mm
+  彎曲資訊: 90°彎曲 × -1
+  最小保護層: 35 mm
+📋 設計依據:
+  • CNS 560 鋼筋混凝土用鋼筋
+  • 建築技術規則施工編
+  • 結構混凝土設計規範
+  • 最小彎曲半徑 = 8 × D
+⚠️  施工注意事項:
+  • 彎曲時須使用標準彎曲機具
+  • 彎曲半徑不得小於規範要求
+  • 彎曲角度誤差不得超過±2°
+  • 鋼筋表面不得有裂縫或損傷</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="inlineStr"/>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>#8#7#6母-650x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="70" customHeight="1">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C71" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>3688</v>
+      </c>
+      <c r="G71" s="3" t="inlineStr"/>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>N#4-(50+300+50)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="70" customHeight="1">
+      <c r="A72" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C72" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>5043</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>7827</v>
+      </c>
+      <c r="G72" s="5" t="inlineStr"/>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>甘外#5-(50+100+50)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="70" customHeight="1">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>5362</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>8322</v>
+      </c>
+      <c r="G73" s="3" t="inlineStr"/>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>甘內#5-(50+100+50)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="70" customHeight="1">
+      <c r="A74" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C74" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>5843</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>5820</v>
+      </c>
+      <c r="G74" s="5" t="inlineStr"/>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>鉤折同#4-(50+100+100)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="70" customHeight="1">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>5843</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>5820</v>
+      </c>
+      <c r="G75" s="3" t="inlineStr"/>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>鉤折反#4-(50+100+100)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="70" customHeight="1">
+      <c r="A76" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C76" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>8285</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>8252</v>
+      </c>
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>弧300直#4-(200+100)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="70" customHeight="1">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>8285</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>8252</v>
+      </c>
+      <c r="G77" s="3" t="inlineStr"/>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>弧300#4-500x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="70" customHeight="1">
+      <c r="A78" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C78" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>5843</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>5820</v>
+      </c>
+      <c r="G78" s="5" t="inlineStr"/>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>鉤弧600#4-(20+500)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="70" customHeight="1">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>4692</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>4673</v>
+      </c>
+      <c r="G79" s="3" t="inlineStr"/>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>弧600鉤#4-(20+500)x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="70" customHeight="1">
+      <c r="A80" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+      <c r="C80" s="7" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>4022</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>8988</v>
+      </c>
+      <c r="G80" s="5" t="inlineStr"/>
+      <c r="H80" s="5" t="inlineStr">
+        <is>
+          <t>雙折#6-50+300+50x10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="70" customHeight="1">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+      <c r="C81" s="8" t="inlineStr">
+        <is>
+          <t>╔══════════════════════════════════════════════════════════╗</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>2681</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>5992</v>
+      </c>
+      <c r="G81" s="3" t="inlineStr"/>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>雙折145度#6-50+300+50x10</t>
         </is>
       </c>
     </row>

--- a/assets/鋼筋型文對照表-20230426.xlsx
+++ b/assets/鋼筋型文對照表-20230426.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,10 +35,6 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -83,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -91,20 +87,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2210,7 +2200,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -2267,7 +2257,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="70" customHeight="1">
+    <row r="3" ht="120" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
@@ -2278,31 +2268,8 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #3
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD280
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D9.5 mm
-  彎曲半徑: R28 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 19 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 3 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #3
+cm</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -2321,7 +2288,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="70" customHeight="1">
+    <row r="4" ht="120" customHeight="1">
       <c r="A4" s="5" t="n">
         <v>2</v>
       </c>
@@ -2332,31 +2299,8 @@
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #4
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD280
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D12.7 mm
-  彎曲半徑: R50 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 22 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 4 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #4
+cm</t>
         </is>
       </c>
       <c r="D4" s="5" t="n">
@@ -2375,7 +2319,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="70" customHeight="1">
+    <row r="5" ht="120" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
@@ -2386,31 +2330,8 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #3
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD280
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D9.5 mm
-  彎曲半徑: R28 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 19 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 3 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #3
+cm</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -2429,7 +2350,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="70" customHeight="1">
+    <row r="6" ht="120" customHeight="1">
       <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
@@ -2438,9 +2359,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp1_oad5nw.png</t>
         </is>
       </c>
       <c r="D6" s="5" t="n">
@@ -2459,7 +2380,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="70" customHeight="1">
+    <row r="7" ht="120" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
@@ -2468,9 +2389,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmppdinv94o.png</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -2489,7 +2410,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="70" customHeight="1">
+    <row r="8" ht="120" customHeight="1">
       <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
@@ -2498,9 +2419,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpxxarbo5s.png</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
@@ -2519,7 +2440,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="70" customHeight="1">
+    <row r="9" ht="120" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
@@ -2528,9 +2449,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp26h_demy.png</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -2549,7 +2470,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="70" customHeight="1">
+    <row r="10" ht="120" customHeight="1">
       <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
@@ -2558,9 +2479,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp5l79uqa6.png</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
@@ -2579,7 +2500,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="70" customHeight="1">
+    <row r="11" ht="120" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
@@ -2588,9 +2509,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp5iorqj19.png</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -2609,7 +2530,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="70" customHeight="1">
+    <row r="12" ht="120" customHeight="1">
       <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
@@ -2618,9 +2539,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpu3v6e8l_.png</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
@@ -2639,7 +2560,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="70" customHeight="1">
+    <row r="13" ht="120" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
@@ -2648,9 +2569,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpa_b9v85d.png</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -2669,7 +2590,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="70" customHeight="1">
+    <row r="14" ht="120" customHeight="1">
       <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
@@ -2678,9 +2599,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpci7b86lk.png</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
@@ -2699,7 +2620,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="70" customHeight="1">
+    <row r="15" ht="120" customHeight="1">
       <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
@@ -2708,9 +2629,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpqr5mevzo.png</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -2729,7 +2650,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="70" customHeight="1">
+    <row r="16" ht="120" customHeight="1">
       <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
@@ -2738,9 +2659,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpzde0j66d.png</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
@@ -2759,7 +2680,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="70" customHeight="1">
+    <row r="17" ht="120" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
@@ -2768,9 +2689,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmph5zpvtxo.png</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -2789,7 +2710,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="70" customHeight="1">
+    <row r="18" ht="120" customHeight="1">
       <c r="A18" s="5" t="n">
         <v>16</v>
       </c>
@@ -2798,9 +2719,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp1jhayh2h.png</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
@@ -2819,7 +2740,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="70" customHeight="1">
+    <row r="19" ht="120" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
@@ -2828,9 +2749,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp9jmbss1i.png</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -2849,7 +2770,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="70" customHeight="1">
+    <row r="20" ht="120" customHeight="1">
       <c r="A20" s="5" t="n">
         <v>18</v>
       </c>
@@ -2858,9 +2779,9 @@
           <t>#6</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp8t1zxmzz.png</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
@@ -2879,7 +2800,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="70" customHeight="1">
+    <row r="21" ht="120" customHeight="1">
       <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
@@ -2888,9 +2809,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp8p5o2rcy.png</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -2909,7 +2830,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="70" customHeight="1">
+    <row r="22" ht="120" customHeight="1">
       <c r="A22" s="5" t="n">
         <v>20</v>
       </c>
@@ -2918,9 +2839,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpbzb7dbxw.png</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
@@ -2939,7 +2860,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="70" customHeight="1">
+    <row r="23" ht="120" customHeight="1">
       <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
@@ -2948,9 +2869,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmplza_tkot.png</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -2969,7 +2890,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="70" customHeight="1">
+    <row r="24" ht="120" customHeight="1">
       <c r="A24" s="5" t="n">
         <v>22</v>
       </c>
@@ -2978,9 +2899,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpumhrl5ow.png</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
@@ -2999,7 +2920,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="70" customHeight="1">
+    <row r="25" ht="120" customHeight="1">
       <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
@@ -3008,9 +2929,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpy1uvamwt.png</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -3029,7 +2950,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="70" customHeight="1">
+    <row r="26" ht="120" customHeight="1">
       <c r="A26" s="5" t="n">
         <v>24</v>
       </c>
@@ -3038,9 +2959,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpkd928fpi.png</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
@@ -3059,7 +2980,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="70" customHeight="1">
+    <row r="27" ht="120" customHeight="1">
       <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
@@ -3068,9 +2989,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpesdfmpxs.png</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -3089,7 +3010,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="70" customHeight="1">
+    <row r="28" ht="120" customHeight="1">
       <c r="A28" s="5" t="n">
         <v>26</v>
       </c>
@@ -3098,9 +3019,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp70gt3fcs.png</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
@@ -3119,7 +3040,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="70" customHeight="1">
+    <row r="29" ht="120" customHeight="1">
       <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
@@ -3128,9 +3049,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpuonycaj7.png</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -3149,7 +3070,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="70" customHeight="1">
+    <row r="30" ht="120" customHeight="1">
       <c r="A30" s="5" t="n">
         <v>28</v>
       </c>
@@ -3158,9 +3079,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp8a2j73x3.png</t>
         </is>
       </c>
       <c r="D30" s="5" t="n">
@@ -3179,7 +3100,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="70" customHeight="1">
+    <row r="31" ht="120" customHeight="1">
       <c r="A31" s="3" t="n">
         <v>29</v>
       </c>
@@ -3188,9 +3109,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpg7bxi951.png</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -3209,7 +3130,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="70" customHeight="1">
+    <row r="32" ht="120" customHeight="1">
       <c r="A32" s="5" t="n">
         <v>30</v>
       </c>
@@ -3218,9 +3139,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpnr_9w9jg.png</t>
         </is>
       </c>
       <c r="D32" s="5" t="n">
@@ -3239,7 +3160,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="70" customHeight="1">
+    <row r="33" ht="120" customHeight="1">
       <c r="A33" s="3" t="n">
         <v>31</v>
       </c>
@@ -3248,9 +3169,9 @@
           <t>#3</t>
         </is>
       </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpflapls6o.png</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
@@ -3269,7 +3190,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="70" customHeight="1">
+    <row r="34" ht="120" customHeight="1">
       <c r="A34" s="5" t="n">
         <v>32</v>
       </c>
@@ -3278,9 +3199,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp2is9qek4.png</t>
         </is>
       </c>
       <c r="D34" s="5" t="n">
@@ -3299,7 +3220,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="70" customHeight="1">
+    <row r="35" ht="120" customHeight="1">
       <c r="A35" s="3" t="n">
         <v>33</v>
       </c>
@@ -3308,9 +3229,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp7njurxzg.png</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
@@ -3329,7 +3250,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="70" customHeight="1">
+    <row r="36" ht="120" customHeight="1">
       <c r="A36" s="5" t="n">
         <v>34</v>
       </c>
@@ -3338,9 +3259,9 @@
           <t>#8</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpwn1ex0ax.png</t>
         </is>
       </c>
       <c r="D36" s="5" t="n">
@@ -3359,7 +3280,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="70" customHeight="1">
+    <row r="37" ht="120" customHeight="1">
       <c r="A37" s="3" t="n">
         <v>35</v>
       </c>
@@ -3368,9 +3289,9 @@
           <t>#8</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp6f0g5bwj.png</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
@@ -3389,7 +3310,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="70" customHeight="1">
+    <row r="38" ht="120" customHeight="1">
       <c r="A38" s="5" t="n">
         <v>36</v>
       </c>
@@ -3398,9 +3319,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C38" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpbaktrh2u.png</t>
         </is>
       </c>
       <c r="D38" s="5" t="n">
@@ -3419,7 +3340,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="70" customHeight="1">
+    <row r="39" ht="120" customHeight="1">
       <c r="A39" s="3" t="n">
         <v>37</v>
       </c>
@@ -3428,9 +3349,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp44w4ea8k.png</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
@@ -3449,7 +3370,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="70" customHeight="1">
+    <row r="40" ht="120" customHeight="1">
       <c r="A40" s="5" t="n">
         <v>38</v>
       </c>
@@ -3458,9 +3379,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpp1rwbwsr.png</t>
         </is>
       </c>
       <c r="D40" s="5" t="n">
@@ -3479,7 +3400,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="70" customHeight="1">
+    <row r="41" ht="120" customHeight="1">
       <c r="A41" s="3" t="n">
         <v>39</v>
       </c>
@@ -3488,9 +3409,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp60kqjx9l.png</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
@@ -3509,7 +3430,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="70" customHeight="1">
+    <row r="42" ht="120" customHeight="1">
       <c r="A42" s="5" t="n">
         <v>40</v>
       </c>
@@ -3518,9 +3439,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpwdpfst41.png</t>
         </is>
       </c>
       <c r="D42" s="5" t="n">
@@ -3539,7 +3460,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="70" customHeight="1">
+    <row r="43" ht="120" customHeight="1">
       <c r="A43" s="3" t="n">
         <v>41</v>
       </c>
@@ -3548,9 +3469,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpp2mygnm1.png</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
@@ -3569,7 +3490,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="70" customHeight="1">
+    <row r="44" ht="120" customHeight="1">
       <c r="A44" s="5" t="n">
         <v>42</v>
       </c>
@@ -3578,9 +3499,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp8ssuvw3q.png</t>
         </is>
       </c>
       <c r="D44" s="5" t="n">
@@ -3599,7 +3520,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="70" customHeight="1">
+    <row r="45" ht="120" customHeight="1">
       <c r="A45" s="3" t="n">
         <v>43</v>
       </c>
@@ -3608,9 +3529,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp_2bo6l1f.png</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
@@ -3629,7 +3550,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="70" customHeight="1">
+    <row r="46" ht="120" customHeight="1">
       <c r="A46" s="5" t="n">
         <v>44</v>
       </c>
@@ -3638,9 +3559,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp7rd3etxg.png</t>
         </is>
       </c>
       <c r="D46" s="5" t="n">
@@ -3659,7 +3580,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="70" customHeight="1">
+    <row r="47" ht="120" customHeight="1">
       <c r="A47" s="3" t="n">
         <v>45</v>
       </c>
@@ -3668,9 +3589,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C47" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpo5d2a9m6.png</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
@@ -3689,7 +3610,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="70" customHeight="1">
+    <row r="48" ht="120" customHeight="1">
       <c r="A48" s="5" t="n">
         <v>46</v>
       </c>
@@ -3698,9 +3619,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C48" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpql8rar6f.png</t>
         </is>
       </c>
       <c r="D48" s="5" t="n">
@@ -3719,7 +3640,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="70" customHeight="1">
+    <row r="49" ht="120" customHeight="1">
       <c r="A49" s="3" t="n">
         <v>47</v>
       </c>
@@ -3728,9 +3649,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C49" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmprcy49psy.png</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
@@ -3749,7 +3670,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="70" customHeight="1">
+    <row r="50" ht="120" customHeight="1">
       <c r="A50" s="5" t="n">
         <v>48</v>
       </c>
@@ -3758,9 +3679,9 @@
           <t>#8</t>
         </is>
       </c>
-      <c r="C50" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmph5_1qdbn.png</t>
         </is>
       </c>
       <c r="D50" s="5" t="n">
@@ -3779,7 +3700,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="70" customHeight="1">
+    <row r="51" ht="120" customHeight="1">
       <c r="A51" s="3" t="n">
         <v>49</v>
       </c>
@@ -3788,9 +3709,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C51" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmph35it3qs.png</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
@@ -3809,7 +3730,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="70" customHeight="1">
+    <row r="52" ht="120" customHeight="1">
       <c r="A52" s="5" t="n">
         <v>50</v>
       </c>
@@ -3818,9 +3739,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp8ej18qio.png</t>
         </is>
       </c>
       <c r="D52" s="5" t="n">
@@ -3839,7 +3760,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="70" customHeight="1">
+    <row r="53" ht="120" customHeight="1">
       <c r="A53" s="3" t="n">
         <v>51</v>
       </c>
@@ -3848,9 +3769,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C53" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpx2uholaj.png</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
@@ -3869,7 +3790,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="70" customHeight="1">
+    <row r="54" ht="120" customHeight="1">
       <c r="A54" s="5" t="n">
         <v>52</v>
       </c>
@@ -3878,9 +3799,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C54" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp2tgsgvkf.png</t>
         </is>
       </c>
       <c r="D54" s="5" t="n">
@@ -3899,7 +3820,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="70" customHeight="1">
+    <row r="55" ht="120" customHeight="1">
       <c r="A55" s="3" t="n">
         <v>53</v>
       </c>
@@ -3908,9 +3829,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpi_ce3wpm.png</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
@@ -3929,7 +3850,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="70" customHeight="1">
+    <row r="56" ht="120" customHeight="1">
       <c r="A56" s="5" t="n">
         <v>54</v>
       </c>
@@ -3938,9 +3859,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C56" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpdb2dxn92.png</t>
         </is>
       </c>
       <c r="D56" s="5" t="n">
@@ -3959,7 +3880,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="70" customHeight="1">
+    <row r="57" ht="120" customHeight="1">
       <c r="A57" s="3" t="n">
         <v>55</v>
       </c>
@@ -3970,31 +3891,8 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #8
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D25.4 mm
-  彎曲半徑: R203 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 35 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 8 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #8
+cm</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
@@ -4013,7 +3911,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="70" customHeight="1">
+    <row r="58" ht="120" customHeight="1">
       <c r="A58" s="5" t="n">
         <v>56</v>
       </c>
@@ -4024,31 +3922,8 @@
       </c>
       <c r="C58" s="6" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #10
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D32.3 mm
-  彎曲半徑: R323 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 42 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 10 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #10
+cm</t>
         </is>
       </c>
       <c r="D58" s="5" t="n">
@@ -4067,7 +3942,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="70" customHeight="1">
+    <row r="59" ht="120" customHeight="1">
       <c r="A59" s="3" t="n">
         <v>57</v>
       </c>
@@ -4078,31 +3953,8 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #10
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D32.3 mm
-  彎曲半徑: R323 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 42 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 10 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #10
+cm</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
@@ -4121,7 +3973,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="70" customHeight="1">
+    <row r="60" ht="120" customHeight="1">
       <c r="A60" s="5" t="n">
         <v>58</v>
       </c>
@@ -4130,9 +3982,9 @@
           <t>#10</t>
         </is>
       </c>
-      <c r="C60" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpwf9q413d.png</t>
         </is>
       </c>
       <c r="D60" s="5" t="n">
@@ -4151,7 +4003,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="70" customHeight="1">
+    <row r="61" ht="120" customHeight="1">
       <c r="A61" s="3" t="n">
         <v>59</v>
       </c>
@@ -4160,9 +4012,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpcym997i2.png</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
@@ -4181,7 +4033,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="70" customHeight="1">
+    <row r="62" ht="120" customHeight="1">
       <c r="A62" s="5" t="n">
         <v>60</v>
       </c>
@@ -4190,9 +4042,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C62" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpwxh8du3e.png</t>
         </is>
       </c>
       <c r="D62" s="5" t="n">
@@ -4211,7 +4063,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="70" customHeight="1">
+    <row r="63" ht="120" customHeight="1">
       <c r="A63" s="3" t="n">
         <v>61</v>
       </c>
@@ -4220,9 +4072,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpo9hw9h0z.png</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
@@ -4241,7 +4093,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="70" customHeight="1">
+    <row r="64" ht="120" customHeight="1">
       <c r="A64" s="5" t="n">
         <v>62</v>
       </c>
@@ -4250,9 +4102,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C64" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp8_wtcn8t.png</t>
         </is>
       </c>
       <c r="D64" s="5" t="n">
@@ -4271,7 +4123,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="70" customHeight="1">
+    <row r="65" ht="120" customHeight="1">
       <c r="A65" s="3" t="n">
         <v>63</v>
       </c>
@@ -4280,9 +4132,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C65" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpf5nddljx.png</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
@@ -4301,7 +4153,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="70" customHeight="1">
+    <row r="66" ht="120" customHeight="1">
       <c r="A66" s="5" t="n">
         <v>64</v>
       </c>
@@ -4310,9 +4162,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C66" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpetccf90w.png</t>
         </is>
       </c>
       <c r="D66" s="5" t="n">
@@ -4331,7 +4183,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="70" customHeight="1">
+    <row r="67" ht="120" customHeight="1">
       <c r="A67" s="3" t="n">
         <v>65</v>
       </c>
@@ -4342,31 +4194,8 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #8
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D25.4 mm
-  彎曲半徑: R203 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 35 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 8 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #8
+cm</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
@@ -4385,7 +4214,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="70" customHeight="1">
+    <row r="68" ht="120" customHeight="1">
       <c r="A68" s="5" t="n">
         <v>66</v>
       </c>
@@ -4396,31 +4225,8 @@
       </c>
       <c r="C68" s="6" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #8
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D25.4 mm
-  彎曲半徑: R203 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 35 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 8 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #8
+cm</t>
         </is>
       </c>
       <c r="D68" s="5" t="n">
@@ -4439,7 +4245,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="70" customHeight="1">
+    <row r="69" ht="120" customHeight="1">
       <c r="A69" s="3" t="n">
         <v>67</v>
       </c>
@@ -4450,31 +4256,8 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #8
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D25.4 mm
-  彎曲半徑: R203 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 35 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 8 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #8
+cm</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
@@ -4493,7 +4276,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="70" customHeight="1">
+    <row r="70" ht="120" customHeight="1">
       <c r="A70" s="5" t="n">
         <v>68</v>
       </c>
@@ -4504,31 +4287,8 @@
       </c>
       <c r="C70" s="6" t="inlineStr">
         <is>
-          <t>╔══════════════════════════════════════════════════════════╗
-║                    專業鋼筋規格圖                        ║
-╚══════════════════════════════════════════════════════════╝
-🔧 基本資訊:
-  鋼筋編號: #8
-  鋼筋類型: 0段複合鋼筋
-  材料等級: SD420
-📏 尺寸規格:
-  總長度:    0 cm
-  計算式:  = 0 cm
-⚙️ 技術參數:
-  鋼筋直徑: D25.4 mm
-  彎曲半徑: R203 mm
-  彎曲資訊: 90°彎曲 × -1
-  最小保護層: 35 mm
-📋 設計依據:
-  • CNS 560 鋼筋混凝土用鋼筋
-  • 建築技術規則施工編
-  • 結構混凝土設計規範
-  • 最小彎曲半徑 = 8 × D
-⚠️  施工注意事項:
-  • 彎曲時須使用標準彎曲機具
-  • 彎曲半徑不得小於規範要求
-  • 彎曲角度誤差不得超過±2°
-  • 鋼筋表面不得有裂縫或損傷</t>
+          <t>複雜鋼筋 #8
+cm</t>
         </is>
       </c>
       <c r="D70" s="5" t="n">
@@ -4547,7 +4307,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="70" customHeight="1">
+    <row r="71" ht="120" customHeight="1">
       <c r="A71" s="3" t="n">
         <v>69</v>
       </c>
@@ -4556,9 +4316,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C71" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmplmzn60lo.png</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
@@ -4577,7 +4337,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="70" customHeight="1">
+    <row r="72" ht="120" customHeight="1">
       <c r="A72" s="5" t="n">
         <v>70</v>
       </c>
@@ -4586,9 +4346,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C72" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmputrjxl6l.png</t>
         </is>
       </c>
       <c r="D72" s="5" t="n">
@@ -4607,7 +4367,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="70" customHeight="1">
+    <row r="73" ht="120" customHeight="1">
       <c r="A73" s="3" t="n">
         <v>71</v>
       </c>
@@ -4616,9 +4376,9 @@
           <t>#5</t>
         </is>
       </c>
-      <c r="C73" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpgi_cvzf0.png</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
@@ -4637,7 +4397,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="70" customHeight="1">
+    <row r="74" ht="120" customHeight="1">
       <c r="A74" s="5" t="n">
         <v>72</v>
       </c>
@@ -4646,9 +4406,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C74" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp6v4su3e4.png</t>
         </is>
       </c>
       <c r="D74" s="5" t="n">
@@ -4667,7 +4427,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="70" customHeight="1">
+    <row r="75" ht="120" customHeight="1">
       <c r="A75" s="3" t="n">
         <v>73</v>
       </c>
@@ -4676,9 +4436,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C75" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpcdons_cp.png</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
@@ -4697,7 +4457,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="70" customHeight="1">
+    <row r="76" ht="120" customHeight="1">
       <c r="A76" s="5" t="n">
         <v>74</v>
       </c>
@@ -4706,9 +4466,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C76" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp9ysnbuvm.png</t>
         </is>
       </c>
       <c r="D76" s="5" t="n">
@@ -4727,7 +4487,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="70" customHeight="1">
+    <row r="77" ht="120" customHeight="1">
       <c r="A77" s="3" t="n">
         <v>75</v>
       </c>
@@ -4736,9 +4496,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C77" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpnpbdvh0e.png</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
@@ -4757,7 +4517,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="70" customHeight="1">
+    <row r="78" ht="120" customHeight="1">
       <c r="A78" s="5" t="n">
         <v>76</v>
       </c>
@@ -4766,9 +4526,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C78" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpg47c67qp.png</t>
         </is>
       </c>
       <c r="D78" s="5" t="n">
@@ -4787,7 +4547,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="70" customHeight="1">
+    <row r="79" ht="120" customHeight="1">
       <c r="A79" s="3" t="n">
         <v>77</v>
       </c>
@@ -4796,9 +4556,9 @@
           <t>#4</t>
         </is>
       </c>
-      <c r="C79" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmpjd76h0nl.png</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
@@ -4817,7 +4577,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="70" customHeight="1">
+    <row r="80" ht="120" customHeight="1">
       <c r="A80" s="5" t="n">
         <v>78</v>
       </c>
@@ -4826,9 +4586,9 @@
           <t>#6</t>
         </is>
       </c>
-      <c r="C80" s="7" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp6870td4h.png</t>
         </is>
       </c>
       <c r="D80" s="5" t="n">
@@ -4847,7 +4607,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="70" customHeight="1">
+    <row r="81" ht="120" customHeight="1">
       <c r="A81" s="3" t="n">
         <v>79</v>
       </c>
@@ -4856,9 +4616,9 @@
           <t>#6</t>
         </is>
       </c>
-      <c r="C81" s="8" t="inlineStr">
-        <is>
-          <t>╔══════════════════════════════════════════════════════════╗</t>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>/var/folders/c3/l5x815ms3kb0dr5wc6pr5_nr0000gn/T/tmp9s6jao0g.png</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
